--- a/MtaLaCost.xlsx
+++ b/MtaLaCost.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\MTA files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD04DB5E-94FF-4206-9440-28184E6EA8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="19095" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Автомобиль</t>
   </si>
@@ -107,46 +116,62 @@
   </si>
   <si>
     <t>Total sum:</t>
+  </si>
+  <si>
+    <t>Give</t>
+  </si>
+  <si>
+    <t>105 000 000 + 2 busssineses + 1 (8 places) blok of flat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -160,52 +185,60 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -369,21 +402,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +433,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -450,340 +483,418 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="15.71"/>
-    <col customWidth="1" min="3" max="3" width="14.57"/>
-    <col customWidth="1" min="4" max="11" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="J2" s="7">
+        <v>44064</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>1.018731E8</v>
+        <v>101873100</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>6910400.0</v>
+        <v>6910400</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>9800000.0</v>
+        <v>9800000</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>5348000.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5348000</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>6300000.0</v>
+        <v>6300000</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>4200000.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4200000</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>1.78276E7</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>17827600</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>2.22341E7</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>22234100</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>1.89E7</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>18900000</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>1.5789899E7</v>
+        <v>15789899</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3">
-        <v>4550000.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>4550000</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3">
-        <v>1.05E7</v>
+        <v>10500000</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3">
-        <v>9800000.0</v>
+        <v>9800000</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3">
-        <v>1.05E7</v>
+        <v>10500000</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="3">
-        <v>5250000.0</v>
+        <v>5250000</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>8119999.0</v>
+        <v>8119999</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3">
-        <v>1015000.0</v>
+        <v>1015000</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3">
-        <v>3290000.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>3290000</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="3">
-        <v>455000.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>455000</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="3">
-        <v>944999.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>944999</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="3">
         <f>SUM(C3:C22)</f>
-        <v>263,608,097 ₽</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>263608097</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3">
-        <v>1.09149738E8</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>109149738</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="3">
         <f>SUM(C23:C24)</f>
-        <v>372,757,835 ₽</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>372757835</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MtaLaCost.xlsx
+++ b/MtaLaCost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\MTA files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD04DB5E-94FF-4206-9440-28184E6EA8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE880893-27DC-43B1-B1B2-F40D0CF98754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="19095" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Автомобиль</t>
   </si>
@@ -121,7 +121,13 @@
     <t>Give</t>
   </si>
   <si>
-    <t>105 000 000 + 2 busssineses + 1 (8 places) blok of flat</t>
+    <t>6 сентября 2020 г.</t>
+  </si>
+  <si>
+    <t>+ 2 busssineses + 1 (8 places) blok of flat</t>
+  </si>
+  <si>
+    <t>Продано</t>
   </si>
 </sst>
 </file>
@@ -130,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,16 +161,39 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,11 +216,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,10 +251,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L100"/>
+  <dimension ref="B2:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -499,7 +549,9 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="5.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
@@ -507,25 +559,31 @@
     <col min="12" max="12" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J2" s="7">
         <v>44064</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="L2" s="3">
+        <v>105000000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3">
@@ -534,12 +592,21 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="3">
+        <v>127000000</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3">
@@ -547,12 +614,15 @@
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>16105000</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -562,22 +632,24 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>5348000</v>
       </c>
+      <c r="F6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -587,56 +659,63 @@
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>4200000</v>
       </c>
+      <c r="F8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>17827600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18000000</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>22234100</v>
       </c>
+      <c r="F10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>18900000</v>
       </c>
+      <c r="F11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3">
@@ -644,23 +723,27 @@
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28183000</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>4550000</v>
       </c>
+      <c r="F13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -670,11 +753,12 @@
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -684,11 +768,12 @@
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
@@ -698,6 +783,7 @@
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -709,6 +795,7 @@
       <c r="C17" s="3">
         <v>5250000</v>
       </c>
+      <c r="F17" s="3"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="3"/>
@@ -722,6 +809,7 @@
       <c r="C18" s="3">
         <v>8119999</v>
       </c>
+      <c r="F18" s="3"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
       <c r="J18" s="3"/>
@@ -729,11 +817,14 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3">
-        <v>1015000</v>
+        <v>10150000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>10150000</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
@@ -748,6 +839,7 @@
       <c r="C20" s="3">
         <v>3290000</v>
       </c>
+      <c r="F20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -759,6 +851,7 @@
       <c r="C21" s="3">
         <v>455000</v>
       </c>
+      <c r="F21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -770,6 +863,7 @@
       <c r="C22" s="3">
         <v>944999</v>
       </c>
+      <c r="F22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -780,8 +874,9 @@
       </c>
       <c r="C23" s="3">
         <f>SUM(C3:C22)</f>
-        <v>263608097</v>
-      </c>
+        <v>272743097</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -793,6 +888,7 @@
       <c r="C24" s="3">
         <v>109149738</v>
       </c>
+      <c r="F24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -801,13 +897,20 @@
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="10">
         <f>SUM(C23:C24)</f>
-        <v>372757835</v>
+        <v>381892835</v>
+      </c>
+      <c r="F25" s="10">
+        <f>SUM(F3:F24)</f>
+        <v>199438000</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="10">
+        <f>SUM(L2:L24)</f>
+        <v>305000000</v>
+      </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
@@ -895,6 +998,6 @@
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MtaLaCost.xlsx
+++ b/MtaLaCost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\MTA files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE880893-27DC-43B1-B1B2-F40D0CF98754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6DD98-CFC5-474F-B461-50AC09D4BD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Автомобиль</t>
   </si>
@@ -88,9 +88,6 @@
     <t>MB G65</t>
   </si>
   <si>
-    <t>номер + 4 кк если брабус крч в аук его за 22</t>
-  </si>
-  <si>
     <t>Nissan GTR 35</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Продано</t>
+  </si>
+  <si>
+    <t>Кирилл угадал</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,6 +172,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -235,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +270,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,7 +549,7 @@
   <dimension ref="B2:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,19 +575,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="7">
         <v>44064</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="3">
         <v>105000000</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -596,10 +604,10 @@
         <v>127000000</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3">
         <v>200000000</v>
@@ -623,7 +631,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3">
@@ -632,7 +640,9 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>15700000</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -759,7 +769,7 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3">
@@ -768,29 +778,36 @@
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>17300000</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3">
         <v>10500000</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>22000000</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3">
         <v>5250000</v>
@@ -804,7 +821,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>8119999</v>
@@ -818,7 +835,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <v>10150000</v>
@@ -834,7 +851,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>3290000</v>
@@ -846,7 +863,7 @@
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <v>455000</v>
@@ -858,7 +875,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <v>944999</v>
@@ -870,9 +887,9 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10">
         <f>SUM(C3:C22)</f>
         <v>272743097</v>
       </c>
@@ -883,7 +900,7 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>109149738</v>
@@ -895,7 +912,7 @@
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="10">
         <f>SUM(C23:C24)</f>
@@ -903,7 +920,7 @@
       </c>
       <c r="F25" s="10">
         <f>SUM(F3:F24)</f>
-        <v>199438000</v>
+        <v>254438000</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
